--- a/Code/Results/Cases/Case_4_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.295020188646902</v>
+        <v>1.057073508126791</v>
       </c>
       <c r="C2">
-        <v>0.5058801742815433</v>
+        <v>0.1760460016094498</v>
       </c>
       <c r="D2">
-        <v>0.3767494034848653</v>
+        <v>0.58421196770405</v>
       </c>
       <c r="E2">
-        <v>0.1178933730345264</v>
+        <v>0.2146193540449808</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008005233541743946</v>
+        <v>0.002480050077520375</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04093474376429995</v>
+        <v>0.09565057122241427</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7246231457916181</v>
+        <v>0.4984823096152411</v>
       </c>
       <c r="N2">
-        <v>0.7337574770265363</v>
+        <v>1.493658391883164</v>
       </c>
       <c r="O2">
-        <v>2.957231976959491</v>
+        <v>4.615361159481807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.991919282061531</v>
+        <v>0.9737045013519605</v>
       </c>
       <c r="C3">
-        <v>0.4392553300382644</v>
+        <v>0.15678593737195</v>
       </c>
       <c r="D3">
-        <v>0.3472652702520378</v>
+        <v>0.5803722276089189</v>
       </c>
       <c r="E3">
-        <v>0.1107726708998662</v>
+        <v>0.2142104062548107</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008059856155478773</v>
+        <v>0.002483661301416862</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04004904269205056</v>
+        <v>0.096044811201903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6336315677090525</v>
+        <v>0.4757391542780098</v>
       </c>
       <c r="N3">
-        <v>0.7794551481516834</v>
+        <v>1.512240688699801</v>
       </c>
       <c r="O3">
-        <v>2.776779837447805</v>
+        <v>4.607621046267212</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.807007420941829</v>
+        <v>0.9228478474239807</v>
       </c>
       <c r="C4">
-        <v>0.3985081021776011</v>
+        <v>0.1449711080410623</v>
       </c>
       <c r="D4">
-        <v>0.3297038510822716</v>
+        <v>0.5782943428948784</v>
       </c>
       <c r="E4">
-        <v>0.1065846849612591</v>
+        <v>0.2140577605890819</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008094453253414411</v>
+        <v>0.002485997403705619</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.039574317939433</v>
+        <v>0.09632602706154714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.578333925284781</v>
+        <v>0.4619962172647831</v>
       </c>
       <c r="N4">
-        <v>0.8087759161100916</v>
+        <v>1.524241352484939</v>
       </c>
       <c r="O4">
-        <v>2.672537995364621</v>
+        <v>4.605706632628142</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.731907588658402</v>
+        <v>0.9022075286146958</v>
       </c>
       <c r="C5">
-        <v>0.3819342549178089</v>
+        <v>0.1401593608371456</v>
       </c>
       <c r="D5">
-        <v>0.3226742803623921</v>
+        <v>0.577517961496639</v>
       </c>
       <c r="E5">
-        <v>0.1049214679741013</v>
+        <v>0.2140203181345548</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008108824718446001</v>
+        <v>0.002486979350455506</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03939736198753252</v>
+        <v>0.09645046953352931</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5559265591567311</v>
+        <v>0.4564516985674842</v>
       </c>
       <c r="N5">
-        <v>0.8210322455201524</v>
+        <v>1.529280282877249</v>
       </c>
       <c r="O5">
-        <v>2.631595972518511</v>
+        <v>4.605639078046067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.719451303555587</v>
+        <v>0.8987853225280844</v>
       </c>
       <c r="C6">
-        <v>0.3791837879604714</v>
+        <v>0.139360552806977</v>
       </c>
       <c r="D6">
-        <v>0.3215144222372146</v>
+        <v>0.5773932953426595</v>
       </c>
       <c r="E6">
-        <v>0.1046478335891941</v>
+        <v>0.2140155965843284</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000811122775809643</v>
+        <v>0.002487144214803882</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03936895041547572</v>
+        <v>0.09647172770931078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5522130238108574</v>
+        <v>0.4555344126372773</v>
       </c>
       <c r="N6">
-        <v>0.8230857277407573</v>
+        <v>1.530125964445517</v>
       </c>
       <c r="O6">
-        <v>2.624887309192303</v>
+        <v>4.605670868054119</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.805993632610353</v>
+        <v>0.9225691431802829</v>
       </c>
       <c r="C7">
-        <v>0.3982844680369908</v>
+        <v>0.1449062032351094</v>
       </c>
       <c r="D7">
-        <v>0.3296085462621221</v>
+        <v>0.5782835873590955</v>
       </c>
       <c r="E7">
-        <v>0.1065620821088338</v>
+        <v>0.2140571553588906</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008094645959023749</v>
+        <v>0.002486010525126027</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03957186576869276</v>
+        <v>0.09632766547602145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.578031239492887</v>
+        <v>0.4619212156484167</v>
       </c>
       <c r="N7">
-        <v>0.8089399748040353</v>
+        <v>1.524308707826384</v>
       </c>
       <c r="O7">
-        <v>2.671979754297837</v>
+        <v>4.605702837763232</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.19023409782335</v>
+        <v>1.028259266080909</v>
       </c>
       <c r="C8">
-        <v>0.4828686753803879</v>
+        <v>0.1694029432250375</v>
       </c>
       <c r="D8">
-        <v>0.3664649230722006</v>
+        <v>0.5828299838237427</v>
       </c>
       <c r="E8">
-        <v>0.1153981384921217</v>
+        <v>0.2144579183267332</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008023851847445957</v>
+        <v>0.002481270628074128</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04061446684717751</v>
+        <v>0.09577837920745225</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6931201130454028</v>
+        <v>0.4905945907683389</v>
       </c>
       <c r="N8">
-        <v>0.7492461572460822</v>
+        <v>1.49994285622868</v>
       </c>
       <c r="O8">
-        <v>2.893582060927002</v>
+        <v>4.61210267262075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.95550568352752</v>
+        <v>1.238137140164156</v>
       </c>
       <c r="C9">
-        <v>0.6504811006240629</v>
+        <v>0.217523841066253</v>
       </c>
       <c r="D9">
-        <v>0.4435003404464624</v>
+        <v>0.5939647750066683</v>
       </c>
       <c r="E9">
-        <v>0.1343273809533905</v>
+        <v>0.2160250249359983</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007893101288352166</v>
+        <v>0.002472914014870512</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04324991860681848</v>
+        <v>0.09501193539940544</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9241726640648622</v>
+        <v>0.548576817761095</v>
       </c>
       <c r="N9">
-        <v>0.6426585976353287</v>
+        <v>1.456853523719051</v>
       </c>
       <c r="O9">
-        <v>3.385576190392925</v>
+        <v>4.647227044471975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.528458215030525</v>
+        <v>1.39392632699014</v>
       </c>
       <c r="C10">
-        <v>0.7754086079941089</v>
+        <v>0.2529272715508455</v>
       </c>
       <c r="D10">
-        <v>0.5036963931807747</v>
+        <v>0.603499980394929</v>
       </c>
       <c r="E10">
-        <v>0.1494237367546773</v>
+        <v>0.2176531658428793</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007801477837531096</v>
+        <v>0.002467340429454849</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04561079175918792</v>
+        <v>0.09463840736130535</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.098460120869888</v>
+        <v>0.5922462195547382</v>
       </c>
       <c r="N10">
-        <v>0.5714136645408772</v>
+        <v>1.428058365455049</v>
       </c>
       <c r="O10">
-        <v>3.790221787898872</v>
+        <v>4.6868829241144</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.792301660609212</v>
+        <v>1.465144565588503</v>
       </c>
       <c r="C11">
-        <v>0.8328069262319957</v>
+        <v>0.2690437789334226</v>
       </c>
       <c r="D11">
-        <v>0.5320329687269805</v>
+        <v>0.6081323668762479</v>
       </c>
       <c r="E11">
-        <v>0.1566017350320266</v>
+        <v>0.2184975330218464</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007760642652911967</v>
+        <v>0.002464926488943894</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04679281018177051</v>
+        <v>0.09450968925884595</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.17904300321706</v>
+        <v>0.6123453722971846</v>
       </c>
       <c r="N11">
-        <v>0.54070321950819</v>
+        <v>1.415580810039282</v>
       </c>
       <c r="O11">
-        <v>3.985683401639562</v>
+        <v>4.707950642147978</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.892751974659518</v>
+        <v>1.492162870805601</v>
       </c>
       <c r="C12">
-        <v>0.8546401982497969</v>
+        <v>0.2751482202019702</v>
       </c>
       <c r="D12">
-        <v>0.5429159393748932</v>
+        <v>0.6099289238021015</v>
       </c>
       <c r="E12">
-        <v>0.159369291583527</v>
+        <v>0.2188321922668734</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007745290347789061</v>
+        <v>0.002464029768756738</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04725740158161074</v>
+        <v>0.09446687477247195</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.20977272157873</v>
+        <v>0.6199899394272563</v>
       </c>
       <c r="N12">
-        <v>0.5293338531776079</v>
+        <v>1.410945347182061</v>
       </c>
       <c r="O12">
-        <v>4.061521145459437</v>
+        <v>4.716365295469018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.871092934184901</v>
+        <v>1.486341804346864</v>
       </c>
       <c r="C13">
-        <v>0.8499333906434288</v>
+        <v>0.2738334566627429</v>
       </c>
       <c r="D13">
-        <v>0.5405650515720595</v>
+        <v>0.6095401188192966</v>
       </c>
       <c r="E13">
-        <v>0.1587709712369083</v>
+        <v>0.2187594540059585</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007748591975307566</v>
+        <v>0.002464222121678745</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0471565634692972</v>
+        <v>0.09447583191944631</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.203144502483994</v>
+        <v>0.6183420596756548</v>
       </c>
       <c r="N13">
-        <v>0.5317706208463342</v>
+        <v>1.411939693411105</v>
       </c>
       <c r="O13">
-        <v>4.045104050820441</v>
+        <v>4.714533602683559</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.800554503990213</v>
+        <v>1.46736638953513</v>
       </c>
       <c r="C14">
-        <v>0.8346011052915401</v>
+        <v>0.2695459664272732</v>
       </c>
       <c r="D14">
-        <v>0.5329251667125163</v>
+        <v>0.6082793215672382</v>
       </c>
       <c r="E14">
-        <v>0.1568284047009705</v>
+        <v>0.2185247666974632</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007759377445876181</v>
+        <v>0.002464852367148329</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04683068316542816</v>
+        <v>0.09450604805312324</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.181566682332132</v>
+        <v>0.6129736258433383</v>
       </c>
       <c r="N14">
-        <v>0.5397625490707014</v>
+        <v>1.415197652827326</v>
       </c>
       <c r="O14">
-        <v>3.991885017796619</v>
+        <v>4.708634159627138</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.757420243194588</v>
+        <v>1.455749826984515</v>
       </c>
       <c r="C15">
-        <v>0.8252228754044495</v>
+        <v>0.2669199416376387</v>
       </c>
       <c r="D15">
-        <v>0.5282658634254744</v>
+        <v>0.6075125645863579</v>
       </c>
       <c r="E15">
-        <v>0.1556451087625703</v>
+        <v>0.218382956455212</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007765998002330156</v>
+        <v>0.002465240672825968</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04663332959108857</v>
+        <v>0.09452532845023498</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.168378484495463</v>
+        <v>0.609689657274771</v>
       </c>
       <c r="N15">
-        <v>0.5446921862730072</v>
+        <v>1.417204909126577</v>
       </c>
       <c r="O15">
-        <v>3.95952966345925</v>
+        <v>4.705077499975971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.511286387308473</v>
+        <v>1.389279011604856</v>
       </c>
       <c r="C16">
-        <v>0.7716702638348636</v>
+        <v>0.2518742340427593</v>
       </c>
       <c r="D16">
-        <v>0.5018650004034839</v>
+        <v>0.6032031733011536</v>
       </c>
       <c r="E16">
-        <v>0.1489612830488483</v>
+        <v>0.2176000716242577</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007804162643820705</v>
+        <v>0.002467500623738913</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04553583911640402</v>
+        <v>0.09464764877155929</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.093222304911215</v>
+        <v>0.5909373824684465</v>
       </c>
       <c r="N16">
-        <v>0.5734561646885101</v>
+        <v>1.428886321593611</v>
       </c>
       <c r="O16">
-        <v>3.777692320529752</v>
+        <v>4.685567145338212</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.361165033939244</v>
+        <v>1.348590212735587</v>
       </c>
       <c r="C17">
-        <v>0.7389739364557215</v>
+        <v>0.2426469644389329</v>
       </c>
       <c r="D17">
-        <v>0.4859236049163371</v>
+        <v>0.6006349886226019</v>
       </c>
       <c r="E17">
-        <v>0.144943761234348</v>
+        <v>0.2171463624851242</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000782778467095735</v>
+        <v>0.002468918090833174</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04489122721500749</v>
+        <v>0.09473324351063539</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.047468136473782</v>
+        <v>0.5794932204257961</v>
       </c>
       <c r="N17">
-        <v>0.5915478608209153</v>
+        <v>1.436211773787699</v>
       </c>
       <c r="O17">
-        <v>3.669182491883475</v>
+        <v>4.674374679779589</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.275115755914896</v>
+        <v>1.325219977190443</v>
       </c>
       <c r="C18">
-        <v>0.7202203002214844</v>
+        <v>0.2373407567609718</v>
       </c>
       <c r="D18">
-        <v>0.4768432387783434</v>
+        <v>0.5991855830699251</v>
       </c>
       <c r="E18">
-        <v>0.1426619146624049</v>
+        <v>0.21689516329198</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007841451622372375</v>
+        <v>0.002469744822798152</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04453053883127822</v>
+        <v>0.09478635321581663</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.021271959266848</v>
+        <v>0.5729328493308472</v>
       </c>
       <c r="N18">
-        <v>0.6021126485686228</v>
+        <v>1.440483670262493</v>
       </c>
       <c r="O18">
-        <v>3.60783030503336</v>
+        <v>4.668222004446704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.246029630729822</v>
+        <v>1.317312885777483</v>
       </c>
       <c r="C19">
-        <v>0.7138791813412126</v>
+        <v>0.2355443552268071</v>
       </c>
       <c r="D19">
-        <v>0.4737835689684573</v>
+        <v>0.5986996052046436</v>
       </c>
       <c r="E19">
-        <v>0.1418941511494758</v>
+        <v>0.2168117882152778</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007846093091843273</v>
+        <v>0.00247002670811617</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04441010437484039</v>
+        <v>0.09480500117463464</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.012422253824347</v>
+        <v>0.5707154050882508</v>
       </c>
       <c r="N19">
-        <v>0.6057165444469561</v>
+        <v>1.441940102428418</v>
       </c>
       <c r="O19">
-        <v>3.587234216604486</v>
+        <v>4.666187711656164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.37711447605119</v>
+        <v>1.352918206234676</v>
       </c>
       <c r="C20">
-        <v>0.7424489789901543</v>
+        <v>0.2436291130520374</v>
       </c>
       <c r="D20">
-        <v>0.487611305679053</v>
+        <v>0.6009055047385061</v>
       </c>
       <c r="E20">
-        <v>0.1453684066183349</v>
+        <v>0.2171936502283245</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007825261839028107</v>
+        <v>0.002468766015701235</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04495879441776651</v>
+        <v>0.09472373043378823</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.052326089393091</v>
+        <v>0.5807091943723606</v>
       </c>
       <c r="N20">
-        <v>0.5896054119500516</v>
+        <v>1.43542591235008</v>
       </c>
       <c r="O20">
-        <v>3.6806225892621</v>
+        <v>4.675536637504536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.821258079200618</v>
+        <v>1.472938590667752</v>
       </c>
       <c r="C21">
-        <v>0.8391017794626521</v>
+        <v>0.2708052675928343</v>
       </c>
       <c r="D21">
-        <v>0.5351649161750061</v>
+        <v>0.6086484984168976</v>
       </c>
       <c r="E21">
-        <v>0.1573976027724768</v>
+        <v>0.2185932952286613</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007756206564593855</v>
+        <v>0.002464666777806148</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04692592886206626</v>
+        <v>0.09449701192227167</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.187898547172097</v>
+        <v>0.6145495582790232</v>
       </c>
       <c r="N21">
-        <v>0.5374079374595002</v>
+        <v>1.414238280538452</v>
       </c>
       <c r="O21">
-        <v>4.007465778382766</v>
+        <v>4.710355104674989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.114712080353627</v>
+        <v>1.551667087601857</v>
       </c>
       <c r="C22">
-        <v>0.9028485333537049</v>
+        <v>0.2885749505859394</v>
       </c>
       <c r="D22">
-        <v>0.5671412230370549</v>
+        <v>0.6139559666175955</v>
       </c>
       <c r="E22">
-        <v>0.1655498723708106</v>
+        <v>0.2195949852438872</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007711716989143748</v>
+        <v>0.002462088991855231</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04831135044777213</v>
+        <v>0.09438339449266664</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.277769556385067</v>
+        <v>0.6368611186461237</v>
       </c>
       <c r="N22">
-        <v>0.5048177420663365</v>
+        <v>1.400912780381592</v>
       </c>
       <c r="O22">
-        <v>4.231786849192076</v>
+        <v>4.735657417171296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.957771495222573</v>
+        <v>1.50962205494443</v>
       </c>
       <c r="C23">
-        <v>0.8687670113704655</v>
+        <v>0.2790902103649842</v>
       </c>
       <c r="D23">
-        <v>0.5499872708156488</v>
+        <v>0.6111006775741146</v>
       </c>
       <c r="E23">
-        <v>0.16117058782595</v>
+        <v>0.2190524087983015</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007735406838943373</v>
+        <v>0.002463455564034076</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04756227898859322</v>
+        <v>0.09444087114964361</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.229677858685633</v>
+        <v>0.6249352338162595</v>
       </c>
       <c r="N23">
-        <v>0.5220667547673177</v>
+        <v>1.407977052843304</v>
       </c>
       <c r="O23">
-        <v>4.111017312652166</v>
+        <v>4.721919654652424</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.369902937040706</v>
+        <v>1.350961450868567</v>
       </c>
       <c r="C24">
-        <v>0.7408777766606249</v>
+        <v>0.2431850877897546</v>
       </c>
       <c r="D24">
-        <v>0.4868480339478651</v>
+        <v>0.6007831200575708</v>
       </c>
       <c r="E24">
-        <v>0.1451763379526056</v>
+        <v>0.2171722413991652</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007826402141640119</v>
+        <v>0.002468834731830035</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04492821653343526</v>
+        <v>0.09472801914733964</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.050129472996275</v>
+        <v>0.5801593932635782</v>
       </c>
       <c r="N24">
-        <v>0.5904830845792262</v>
+        <v>1.435781012174395</v>
       </c>
       <c r="O24">
-        <v>3.675447321810736</v>
+        <v>4.675010438004165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.746872146430007</v>
+        <v>1.181079704229887</v>
       </c>
       <c r="C25">
-        <v>0.6048803920284911</v>
+        <v>0.2044971539452547</v>
       </c>
       <c r="D25">
-        <v>0.4220821624746236</v>
+        <v>0.5907147729775062</v>
       </c>
       <c r="E25">
-        <v>0.1290141465488901</v>
+        <v>0.2155173926839105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007927656042698822</v>
+        <v>0.00247507487020756</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04246737595066463</v>
+        <v>0.09518599933001681</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8609685623784316</v>
+        <v>0.5327032676816117</v>
       </c>
       <c r="N25">
-        <v>0.6703054085493534</v>
+        <v>1.468007810414729</v>
       </c>
       <c r="O25">
-        <v>3.245528006216148</v>
+        <v>4.635299166977262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.057073508126791</v>
+        <v>2.295020188647015</v>
       </c>
       <c r="C2">
-        <v>0.1760460016094498</v>
+        <v>0.5058801742815149</v>
       </c>
       <c r="D2">
-        <v>0.58421196770405</v>
+        <v>0.3767494034851637</v>
       </c>
       <c r="E2">
-        <v>0.2146193540449808</v>
+        <v>0.1178933730345406</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002480050077520375</v>
+        <v>0.0008005233541731178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09565057122241427</v>
+        <v>0.04093474376424311</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4984823096152411</v>
+        <v>0.7246231457916323</v>
       </c>
       <c r="N2">
-        <v>1.493658391883164</v>
+        <v>0.7337574770265274</v>
       </c>
       <c r="O2">
-        <v>4.615361159481807</v>
+        <v>2.957231976959577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9737045013519605</v>
+        <v>1.991919282061474</v>
       </c>
       <c r="C3">
-        <v>0.15678593737195</v>
+        <v>0.4392553300383781</v>
       </c>
       <c r="D3">
-        <v>0.5803722276089189</v>
+        <v>0.347265270251981</v>
       </c>
       <c r="E3">
-        <v>0.2142104062548107</v>
+        <v>0.1107726708998413</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002483661301416862</v>
+        <v>0.0008059856155770872</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.096044811201903</v>
+        <v>0.04004904269202925</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4757391542780098</v>
+        <v>0.6336315677090596</v>
       </c>
       <c r="N3">
-        <v>1.512240688699801</v>
+        <v>0.779455148151678</v>
       </c>
       <c r="O3">
-        <v>4.607621046267212</v>
+        <v>2.776779837447833</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9228478474239807</v>
+        <v>1.807007420941972</v>
       </c>
       <c r="C4">
-        <v>0.1449711080410623</v>
+        <v>0.398508102177459</v>
       </c>
       <c r="D4">
-        <v>0.5782943428948784</v>
+        <v>0.3297038510823853</v>
       </c>
       <c r="E4">
-        <v>0.2140577605890819</v>
+        <v>0.1065846849612591</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002485997403705619</v>
+        <v>0.0008094453253415669</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09632602706154714</v>
+        <v>0.039574317939433</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4619962172647831</v>
+        <v>0.5783339252848023</v>
       </c>
       <c r="N4">
-        <v>1.524241352484939</v>
+        <v>0.8087759161100863</v>
       </c>
       <c r="O4">
-        <v>4.605706632628142</v>
+        <v>2.672537995364621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9022075286146958</v>
+        <v>1.731907588658515</v>
       </c>
       <c r="C5">
-        <v>0.1401593608371456</v>
+        <v>0.3819342549176952</v>
       </c>
       <c r="D5">
-        <v>0.577517961496639</v>
+        <v>0.3226742803626621</v>
       </c>
       <c r="E5">
-        <v>0.2140203181345548</v>
+        <v>0.1049214679741191</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002486979350455506</v>
+        <v>0.0008108824718744216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09645046953352931</v>
+        <v>0.03939736198758226</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4564516985674842</v>
+        <v>0.5559265591567382</v>
       </c>
       <c r="N5">
-        <v>1.529280282877249</v>
+        <v>0.8210322455201009</v>
       </c>
       <c r="O5">
-        <v>4.605639078046067</v>
+        <v>2.631595972518483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8987853225280844</v>
+        <v>1.719451303555473</v>
       </c>
       <c r="C6">
-        <v>0.139360552806977</v>
+        <v>0.3791837879607272</v>
       </c>
       <c r="D6">
-        <v>0.5773932953426595</v>
+        <v>0.3215144222373283</v>
       </c>
       <c r="E6">
-        <v>0.2140155965843284</v>
+        <v>0.1046478335891834</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002487144214803882</v>
+        <v>0.0008111227758381826</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09647172770931078</v>
+        <v>0.03936895041547217</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4555344126372773</v>
+        <v>0.5522130238108645</v>
       </c>
       <c r="N6">
-        <v>1.530125964445517</v>
+        <v>0.823085727740704</v>
       </c>
       <c r="O6">
-        <v>4.605670868054119</v>
+        <v>2.624887309192331</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9225691431802829</v>
+        <v>1.805993632610267</v>
       </c>
       <c r="C7">
-        <v>0.1449062032351094</v>
+        <v>0.3982844680369055</v>
       </c>
       <c r="D7">
-        <v>0.5782835873590955</v>
+        <v>0.3296085462621505</v>
       </c>
       <c r="E7">
-        <v>0.2140571553588906</v>
+        <v>0.1065620821088089</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002486010525126027</v>
+        <v>0.0008094645959030052</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09632766547602145</v>
+        <v>0.03957186576872829</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4619212156484167</v>
+        <v>0.5780312394928799</v>
       </c>
       <c r="N7">
-        <v>1.524308707826384</v>
+        <v>0.8089399748039838</v>
       </c>
       <c r="O7">
-        <v>4.605702837763232</v>
+        <v>2.671979754297837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.028259266080909</v>
+        <v>2.19023409782335</v>
       </c>
       <c r="C8">
-        <v>0.1694029432250375</v>
+        <v>0.4828686753804448</v>
       </c>
       <c r="D8">
-        <v>0.5828299838237427</v>
+        <v>0.3664649230721864</v>
       </c>
       <c r="E8">
-        <v>0.2144579183267332</v>
+        <v>0.1153981384921003</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002481270628074128</v>
+        <v>0.0008023851847145751</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09577837920745225</v>
+        <v>0.04061446684717396</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4905945907683389</v>
+        <v>0.6931201130453957</v>
       </c>
       <c r="N8">
-        <v>1.49994285622868</v>
+        <v>0.7492461572460787</v>
       </c>
       <c r="O8">
-        <v>4.61210267262075</v>
+        <v>2.893582060927002</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.238137140164156</v>
+        <v>2.95550568352752</v>
       </c>
       <c r="C9">
-        <v>0.217523841066253</v>
+        <v>0.6504811006240345</v>
       </c>
       <c r="D9">
-        <v>0.5939647750066683</v>
+        <v>0.4435003404463203</v>
       </c>
       <c r="E9">
-        <v>0.2160250249359983</v>
+        <v>0.1343273809534224</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002472914014870512</v>
+        <v>0.0007893101288633933</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09501193539940544</v>
+        <v>0.04324991860681138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.548576817761095</v>
+        <v>0.9241726640648764</v>
       </c>
       <c r="N9">
-        <v>1.456853523719051</v>
+        <v>0.6426585976353305</v>
       </c>
       <c r="O9">
-        <v>4.647227044471975</v>
+        <v>3.385576190392925</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.39392632699014</v>
+        <v>3.528458215030525</v>
       </c>
       <c r="C10">
-        <v>0.2529272715508455</v>
+        <v>0.7754086079941374</v>
       </c>
       <c r="D10">
-        <v>0.603499980394929</v>
+        <v>0.5036963931805758</v>
       </c>
       <c r="E10">
-        <v>0.2176531658428793</v>
+        <v>0.1494237367546773</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002467340429454849</v>
+        <v>0.000780147783686371</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09463840736130535</v>
+        <v>0.04561079175924476</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5922462195547382</v>
+        <v>1.098460120869895</v>
       </c>
       <c r="N10">
-        <v>1.428058365455049</v>
+        <v>0.5714136645408185</v>
       </c>
       <c r="O10">
-        <v>4.6868829241144</v>
+        <v>3.790221787898872</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.465144565588503</v>
+        <v>3.792301660609269</v>
       </c>
       <c r="C11">
-        <v>0.2690437789334226</v>
+        <v>0.8328069262320241</v>
       </c>
       <c r="D11">
-        <v>0.6081323668762479</v>
+        <v>0.5320329687267815</v>
       </c>
       <c r="E11">
-        <v>0.2184975330218464</v>
+        <v>0.156601735032023</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002464926488943894</v>
+        <v>0.0007760642653501508</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09450968925884595</v>
+        <v>0.04679281018178827</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6123453722971846</v>
+        <v>1.179043003217018</v>
       </c>
       <c r="N11">
-        <v>1.415580810039282</v>
+        <v>0.5407032195082078</v>
       </c>
       <c r="O11">
-        <v>4.707950642147978</v>
+        <v>3.985683401639562</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.492162870805601</v>
+        <v>3.892751974659575</v>
       </c>
       <c r="C12">
-        <v>0.2751482202019702</v>
+        <v>0.854640198249939</v>
       </c>
       <c r="D12">
-        <v>0.6099289238021015</v>
+        <v>0.5429159393748932</v>
       </c>
       <c r="E12">
-        <v>0.2188321922668734</v>
+        <v>0.1593692915834808</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002464029768756738</v>
+        <v>0.0007745290347393822</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09446687477247195</v>
+        <v>0.04725740158161429</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6199899394272563</v>
+        <v>1.209772721578744</v>
       </c>
       <c r="N12">
-        <v>1.410945347182061</v>
+        <v>0.5293338531776079</v>
       </c>
       <c r="O12">
-        <v>4.716365295469018</v>
+        <v>4.06152114545938</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.486341804346864</v>
+        <v>3.87109293418473</v>
       </c>
       <c r="C13">
-        <v>0.2738334566627429</v>
+        <v>0.8499333906434856</v>
       </c>
       <c r="D13">
-        <v>0.6095401188192966</v>
+        <v>0.5405650515720879</v>
       </c>
       <c r="E13">
-        <v>0.2187594540059585</v>
+        <v>0.1587709712368977</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002464222121678745</v>
+        <v>0.0007748591975310864</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09447583191944631</v>
+        <v>0.04715656346929364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6183420596756548</v>
+        <v>1.203144502483994</v>
       </c>
       <c r="N13">
-        <v>1.411939693411105</v>
+        <v>0.5317706208463857</v>
       </c>
       <c r="O13">
-        <v>4.714533602683559</v>
+        <v>4.045104050820555</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.46736638953513</v>
+        <v>3.800554503990156</v>
       </c>
       <c r="C14">
-        <v>0.2695459664272732</v>
+        <v>0.8346011052915969</v>
       </c>
       <c r="D14">
-        <v>0.6082793215672382</v>
+        <v>0.5329251667124026</v>
       </c>
       <c r="E14">
-        <v>0.2185247666974632</v>
+        <v>0.156828404700974</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002464852367148329</v>
+        <v>0.0007759377446446467</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09450604805312324</v>
+        <v>0.04683068316537486</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6129736258433383</v>
+        <v>1.181566682332118</v>
       </c>
       <c r="N14">
-        <v>1.415197652827326</v>
+        <v>0.5397625490707618</v>
       </c>
       <c r="O14">
-        <v>4.708634159627138</v>
+        <v>3.991885017796562</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.455749826984515</v>
+        <v>3.757420243194417</v>
       </c>
       <c r="C15">
-        <v>0.2669199416376387</v>
+        <v>0.8252228754044779</v>
       </c>
       <c r="D15">
-        <v>0.6075125645863579</v>
+        <v>0.5282658634255881</v>
       </c>
       <c r="E15">
-        <v>0.218382956455212</v>
+        <v>0.1556451087625526</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002465240672825968</v>
+        <v>0.0007765998002328023</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09452532845023498</v>
+        <v>0.0466333295911312</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.609689657274771</v>
+        <v>1.168378484495449</v>
       </c>
       <c r="N15">
-        <v>1.417204909126577</v>
+        <v>0.5446921862729983</v>
       </c>
       <c r="O15">
-        <v>4.705077499975971</v>
+        <v>3.959529663459193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.389279011604856</v>
+        <v>3.511286387308473</v>
       </c>
       <c r="C16">
-        <v>0.2518742340427593</v>
+        <v>0.7716702638348636</v>
       </c>
       <c r="D16">
-        <v>0.6032031733011536</v>
+        <v>0.5018650004034839</v>
       </c>
       <c r="E16">
-        <v>0.2176000716242577</v>
+        <v>0.1489612830488518</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002467500623738913</v>
+        <v>0.0007804162643820705</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09464764877155929</v>
+        <v>0.04553583911640757</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5909373824684465</v>
+        <v>1.093222304911237</v>
       </c>
       <c r="N16">
-        <v>1.428886321593611</v>
+        <v>0.5734561646885137</v>
       </c>
       <c r="O16">
-        <v>4.685567145338212</v>
+        <v>3.777692320529752</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.348590212735587</v>
+        <v>3.361165033939301</v>
       </c>
       <c r="C17">
-        <v>0.2426469644389329</v>
+        <v>0.7389739364555794</v>
       </c>
       <c r="D17">
-        <v>0.6006349886226019</v>
+        <v>0.4859236049163087</v>
       </c>
       <c r="E17">
-        <v>0.2171463624851242</v>
+        <v>0.1449437612343729</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002468918090833174</v>
+        <v>0.0007827784670964643</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09473324351063539</v>
+        <v>0.04489122721506433</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5794932204257961</v>
+        <v>1.047468136473768</v>
       </c>
       <c r="N17">
-        <v>1.436211773787699</v>
+        <v>0.5915478608209757</v>
       </c>
       <c r="O17">
-        <v>4.674374679779589</v>
+        <v>3.669182491883419</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.325219977190443</v>
+        <v>3.275115755914783</v>
       </c>
       <c r="C18">
-        <v>0.2373407567609718</v>
+        <v>0.7202203002213992</v>
       </c>
       <c r="D18">
-        <v>0.5991855830699251</v>
+        <v>0.4768432387782298</v>
       </c>
       <c r="E18">
-        <v>0.21689516329198</v>
+        <v>0.1426619146624049</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002469744822798152</v>
+        <v>0.0007841451622664221</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09478635321581663</v>
+        <v>0.04453053883128888</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5729328493308472</v>
+        <v>1.021271959266848</v>
       </c>
       <c r="N18">
-        <v>1.440483670262493</v>
+        <v>0.6021126485686796</v>
       </c>
       <c r="O18">
-        <v>4.668222004446704</v>
+        <v>3.60783030503336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.317312885777483</v>
+        <v>3.246029630729993</v>
       </c>
       <c r="C19">
-        <v>0.2355443552268071</v>
+        <v>0.7138791813413263</v>
       </c>
       <c r="D19">
-        <v>0.5986996052046436</v>
+        <v>0.4737835689683436</v>
       </c>
       <c r="E19">
-        <v>0.2168117882152778</v>
+        <v>0.1418941511494829</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00247002670811617</v>
+        <v>0.0007846093091456347</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09480500117463464</v>
+        <v>0.04441010437482618</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5707154050882508</v>
+        <v>1.012422253824369</v>
       </c>
       <c r="N19">
-        <v>1.441940102428418</v>
+        <v>0.6057165444469454</v>
       </c>
       <c r="O19">
-        <v>4.666187711656164</v>
+        <v>3.587234216604543</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.352918206234676</v>
+        <v>3.37711447605119</v>
       </c>
       <c r="C20">
-        <v>0.2436291130520374</v>
+        <v>0.7424489789901543</v>
       </c>
       <c r="D20">
-        <v>0.6009055047385061</v>
+        <v>0.487611305679053</v>
       </c>
       <c r="E20">
-        <v>0.2171936502283245</v>
+        <v>0.1453684066183456</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002468766015701235</v>
+        <v>0.0007825261838938502</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09472373043378823</v>
+        <v>0.04495879441772388</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5807091943723606</v>
+        <v>1.052326089393091</v>
       </c>
       <c r="N20">
-        <v>1.43542591235008</v>
+        <v>0.5896054119500533</v>
       </c>
       <c r="O20">
-        <v>4.675536637504536</v>
+        <v>3.680622589262157</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.472938590667752</v>
+        <v>3.821258079200675</v>
       </c>
       <c r="C21">
-        <v>0.2708052675928343</v>
+        <v>0.8391017794625668</v>
       </c>
       <c r="D21">
-        <v>0.6086484984168976</v>
+        <v>0.5351649161751482</v>
       </c>
       <c r="E21">
-        <v>0.2185932952286613</v>
+        <v>0.157397602772491</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002464666777806148</v>
+        <v>0.0007756206564584296</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09449701192227167</v>
+        <v>0.04692592886210534</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6145495582790232</v>
+        <v>1.187898547172097</v>
       </c>
       <c r="N21">
-        <v>1.414238280538452</v>
+        <v>0.5374079374594931</v>
       </c>
       <c r="O21">
-        <v>4.710355104674989</v>
+        <v>4.00746577838288</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.551667087601857</v>
+        <v>4.114712080353627</v>
       </c>
       <c r="C22">
-        <v>0.2885749505859394</v>
+        <v>0.9028485333537617</v>
       </c>
       <c r="D22">
-        <v>0.6139559666175955</v>
+        <v>0.5671412230370265</v>
       </c>
       <c r="E22">
-        <v>0.2195949852438872</v>
+        <v>0.1655498723707964</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002462088991855231</v>
+        <v>0.0007711716989718733</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09438339449266664</v>
+        <v>0.04831135044782897</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6368611186461237</v>
+        <v>1.277769556385081</v>
       </c>
       <c r="N22">
-        <v>1.400912780381592</v>
+        <v>0.5048177420662761</v>
       </c>
       <c r="O22">
-        <v>4.735657417171296</v>
+        <v>4.231786849192133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.50962205494443</v>
+        <v>3.957771495222516</v>
       </c>
       <c r="C23">
-        <v>0.2790902103649842</v>
+        <v>0.8687670113704655</v>
       </c>
       <c r="D23">
-        <v>0.6111006775741146</v>
+        <v>0.5499872708156488</v>
       </c>
       <c r="E23">
-        <v>0.2190524087983015</v>
+        <v>0.1611705878259357</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002463455564034076</v>
+        <v>0.0007735406839501388</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09444087114964361</v>
+        <v>0.04756227898858256</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6249352338162595</v>
+        <v>1.229677858685648</v>
       </c>
       <c r="N23">
-        <v>1.407977052843304</v>
+        <v>0.5220667547673692</v>
       </c>
       <c r="O23">
-        <v>4.721919654652424</v>
+        <v>4.111017312652166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.350961450868567</v>
+        <v>3.369902937040649</v>
       </c>
       <c r="C24">
-        <v>0.2431850877897546</v>
+        <v>0.7408777766605397</v>
       </c>
       <c r="D24">
-        <v>0.6007831200575708</v>
+        <v>0.4868480339478651</v>
       </c>
       <c r="E24">
-        <v>0.2171722413991652</v>
+        <v>0.1451763379525843</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002468834731830035</v>
+        <v>0.0007826402140973336</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09472801914733964</v>
+        <v>0.04492821653339263</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5801593932635782</v>
+        <v>1.050129472996275</v>
       </c>
       <c r="N24">
-        <v>1.435781012174395</v>
+        <v>0.5904830845791622</v>
       </c>
       <c r="O24">
-        <v>4.675010438004165</v>
+        <v>3.675447321810736</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.181079704229887</v>
+        <v>2.746872146429894</v>
       </c>
       <c r="C25">
-        <v>0.2044971539452547</v>
+        <v>0.6048803920283774</v>
       </c>
       <c r="D25">
-        <v>0.5907147729775062</v>
+        <v>0.4220821624745241</v>
       </c>
       <c r="E25">
-        <v>0.2155173926839105</v>
+        <v>0.1290141465488759</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00247507487020756</v>
+        <v>0.0007927656042070849</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09518599933001681</v>
+        <v>0.04246737595072858</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5327032676816117</v>
+        <v>0.8609685623784173</v>
       </c>
       <c r="N25">
-        <v>1.468007810414729</v>
+        <v>0.6703054085492912</v>
       </c>
       <c r="O25">
-        <v>4.635299166977262</v>
+        <v>3.245528006216119</v>
       </c>
     </row>
   </sheetData>
